--- a/data/trans_camb/P20_4_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P20_4_R-Edad-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>-3,01</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,15</t>
+          <t>-5,57</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,53</t>
+          <t>-4,2</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 12,8</t>
+          <t>-14,0; 7,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 16,03</t>
+          <t>-16,44; 5,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 11,7</t>
+          <t>-11,92; 3,64</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>-4,83%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,64%</t>
+          <t>-8,07%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,25%</t>
+          <t>-6,4%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-22,17; 41,1</t>
+          <t>-20,69; 13,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,2; 62,49</t>
+          <t>-22,74; 8,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 37,96</t>
+          <t>-17,19; 5,76</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,74</t>
+          <t>-6,52</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,51</t>
+          <t>-7,81</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,06</t>
+          <t>-7,19</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 19,64</t>
+          <t>-21,96; 5,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 19,31</t>
+          <t>-17,57; 2,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 15,75</t>
+          <t>-16,49; 1,39</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>-10,8%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>26,15%</t>
+          <t>-11,77%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,5%</t>
+          <t>-11,36%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-15,3; 60,16</t>
+          <t>-34,26; 10,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 68,19</t>
+          <t>-25,3; 3,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 49,29</t>
+          <t>-24,32; 2,27</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,73</t>
+          <t>-8,84</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>11,38</t>
+          <t>-11,78</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,11</t>
+          <t>-10,32</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 17,3</t>
+          <t>-18,78; 1,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,33; 18,97</t>
+          <t>-19,57; -4,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,88; 15,07</t>
+          <t>-16,45; -4,33</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>19,91%</t>
+          <t>-13,55%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>41,62%</t>
+          <t>-16,32%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>29,84%</t>
+          <t>-15,01%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 57,86</t>
+          <t>-27,29; 1,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,14; 81,16</t>
+          <t>-26,23; -6,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,85; 54,67</t>
+          <t>-23,33; -6,44</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>16,06</t>
+          <t>-15,92</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,13</t>
+          <t>-6,2</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>11,46</t>
+          <t>-10,97</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,6; 24,24</t>
+          <t>-24,9; -7,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 14,49</t>
+          <t>-13,53; 0,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,43; 16,87</t>
+          <t>-17,15; -5,94</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>51,17%</t>
+          <t>-23,26%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>23,74%</t>
+          <t>-8,95%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>37,37%</t>
+          <t>-15,92%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>20,71; 90,75</t>
+          <t>-34,99; -12,13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 54,68</t>
+          <t>-18,48; 1,26</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>16,29; 60,16</t>
+          <t>-23,87; -9,04</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>6,24</t>
+          <t>-6,03</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>11,2</t>
+          <t>-10,37</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>8,72</t>
+          <t>-8,2</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 16,1</t>
+          <t>-15,37; 3,39</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,33; 21,14</t>
+          <t>-19,44; -1,14</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,96; 15,21</t>
+          <t>-14,73; -1,67</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>19,7%</t>
+          <t>-8,9%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>37,44%</t>
+          <t>-14,85%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>28,33%</t>
+          <t>-11,92%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 58,69</t>
+          <t>-22,0; 5,14</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>3,03; 81,02</t>
+          <t>-26,69; -1,93</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>6,16; 55,65</t>
+          <t>-20,73; -2,59</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3,63</t>
+          <t>-2,42</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>5,75</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>4,83</t>
+          <t>-1,85</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 16,25</t>
+          <t>-13,1; 9,67</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 15,51</t>
+          <t>-10,64; 8,18</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 12,06</t>
+          <t>-9,26; 5,24</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>-4,47%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>13,57%</t>
+          <t>-2,62%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>11,25%</t>
+          <t>-3,42%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-13,39; 41,6</t>
+          <t>-22,74; 19,28</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 42,1</t>
+          <t>-18,44; 16,58</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 30,33</t>
+          <t>-16,01; 10,48</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>7,03</t>
+          <t>-7,48</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>8,11</t>
+          <t>-6,89</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>7,58</t>
+          <t>-7,19</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2,07; 11,07</t>
+          <t>-11,35; -2,86</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>4,57; 12,12</t>
+          <t>-10,29; -3,23</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>4,87; 10,44</t>
+          <t>-10,04; -4,19</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>19,48%</t>
+          <t>-11,82%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>25,08%</t>
+          <t>-10,38%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>22,19%</t>
+          <t>-11,09%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,24 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>5,77; 32,02</t>
+          <t>-17,46; -4,66</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>13,04; 39,2</t>
+          <t>-15,21; -4,91</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>13,59; 31,63</t>
+          <t>-15,2; -6,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P20_4_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P20_4_R-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-3,01</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-5,57</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-4,2</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-1.370795602727792</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-5.332784038552685</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-3.211507198875929</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-14,0; 7,85</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-16,44; 5,28</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-11,92; 3,64</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-12.50643542317492</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-16.62617002653978</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-10.94400160830612</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-4,83%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-8,07%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-6,4%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>9.512462957383956</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.534073378310816</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4.667442911684818</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-20,69; 13,71</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-22,74; 8,1</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-17,19; 5,76</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.02194587191053511</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.07719675038821969</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.04895470175943253</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-6,52</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-7,81</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-7,19</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.184128086284481</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.2274548217323136</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.1576345069590281</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-21,96; 5,97</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-17,57; 2,1</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-16,49; 1,39</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.1656545450425356</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.0871093771656213</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.0763287263786247</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-10,8%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-11,77%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-11,36%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-6.995945552111005</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-10.04503299869662</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-8.482353901270312</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-34,26; 10,4</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-25,3; 3,31</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-24,32; 2,27</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-21.39084150400828</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-19.91394524361905</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-17.76174486759916</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-8,84</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-11,78</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-10,32</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>6.076577405882571</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-0.3088943795281858</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-0.2176632417927706</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-18,78; 1,15</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-19,57; -4,24</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-16,45; -4,33</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.1157641517268763</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.1488781095787091</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.1329990133262429</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-13,55%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-16,32%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-15,01%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.329153276539694</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.2784779653700258</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.2617382458201521</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-27,29; 1,96</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-26,23; -6,13</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-23,33; -6,44</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.09883864428215029</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>-0.005029825461440323</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>-0.004233787160697934</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,287 +775,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-15,92</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-6,2</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-10,97</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-8.044563435717899</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-11.87698054513207</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-10.00465009204526</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-24,9; -7,42</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-13,53; 0,81</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-17,15; -5,94</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-18.98501622727579</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-19.65450316048237</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-16.17105729404618</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-23,26%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-8,95%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-15,92%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>1.562879962245756</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>-4.457274240670314</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>-3.364846907845067</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-34,99; -12,13</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-18,48; 1,26</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-23,87; -9,04</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.1215379692039118</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.1634675117595105</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.143995160866679</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-6,03</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-10,37</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-8,2</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.2662232839331564</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.2608622559588029</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.2257284915130186</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-15,37; 3,39</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-19,44; -1,14</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-14,73; -1,67</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.02802141885087823</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>-0.06407541170986393</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>-0.04969847377851676</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-8,9%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-14,85%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-11,92%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-16.34949788240875</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-6.546849249354636</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-11.32852935302313</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-22,0; 5,14</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-26,69; -1,93</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-20,73; -2,59</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-25.67409377700071</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-13.76045244538764</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-16.94725856327858</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-2,42</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-1,42</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-1,85</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>-8.21788771292985</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.6998855073805414</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>-5.760126582553815</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-13,1; 9,67</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-10,64; 8,18</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-9,26; 5,24</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.2382682713949495</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.0935463487260472</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.1633946318564765</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-4,47%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-2,62%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-3,42%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.36062707336393</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.1919545039661746</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.2377057518981695</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-22,74; 19,28</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-18,44; 16,58</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-16,01; 10,48</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>-0.1286793799324026</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.01056062687926165</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>-0.08686921085346402</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1130,93 +987,315 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>-7,48</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>-6,89</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>-7,19</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>-5.88161907300766</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>-11.28121930732306</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>-8.57749041580842</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>-11,35; -2,86</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>-10,29; -3,23</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>-10,04; -4,19</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>-14.66373726108558</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>-20.41546985955329</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>-14.9437550496789</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>-11,82%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>-10,38%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>-11,09%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>4.180870501451248</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>-2.079798808206941</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>-2.016151608982418</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>-17,46; -4,66</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>-15,21; -4,91</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-15,2; -6,75</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>-0.0860579953989883</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>-0.1609470084662243</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>-0.1239293108279398</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>-0.2025639722439788</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>-0.2845512898781724</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>-0.2080594804619079</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>0.0711424737900743</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>-0.03398112948995564</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>-0.02998918096501478</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>-4.247838085166977</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>-6.001672299014937</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>-5.240388127576545</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>-14.70500172355673</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>-15.37173334266521</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>-12.67462042129255</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>8.53628592740584</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>4.470182255461238</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>2.455961351433749</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>-0.07546158289313691</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>-0.1041136583339809</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>-0.09184453603280507</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>-0.24666558764199</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>-0.2539182352878839</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>-0.207267313018111</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>0.1656134679211323</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>0.07956385910266081</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>0.04597063367353083</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>-7.519672144192691</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>-8.392772232822255</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>-7.969255575326473</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>-12.1540096395402</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>-12.0088983130072</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>-10.8602665561357</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>-3.078411780091391</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>-4.549954280956083</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>-5.064306639532049</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>-0.1176331250297925</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>-0.124055808245616</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>-0.1210684224450704</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>-0.1857648599360889</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>-0.1732823578335239</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>-0.1631869422871925</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>-0.05150442119258569</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>-0.06831261086888721</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>-0.07892948825212433</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1224,14 +1303,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
